--- a/data/GOZO_strategy.xlsx
+++ b/data/GOZO_strategy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600E3639-F91E-0B4D-90DE-A8C8D9B0A983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC97788B-BA97-874A-A8C2-4A9E68494607}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35880" yWindow="5260" windowWidth="27240" windowHeight="15420" xr2:uid="{3ED843D8-AEB1-3D4E-B337-98446BB2CE17}"/>
+    <workbookView xWindow="39780" yWindow="6780" windowWidth="27240" windowHeight="15420" xr2:uid="{3ED843D8-AEB1-3D4E-B337-98446BB2CE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>session</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>freq</t>
+  </si>
+  <si>
+    <t>freq_2</t>
   </si>
 </sst>
 </file>
@@ -393,15 +396,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CE9047-D882-FB41-A98E-BEB988A70E9C}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,6 +413,23 @@
       </c>
       <c r="C1" t="s">
         <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/GOZO_strategy.xlsx
+++ b/data/GOZO_strategy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC97788B-BA97-874A-A8C2-4A9E68494607}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C4A31A-7622-FF44-97CE-C975B1370FBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39780" yWindow="6780" windowWidth="27240" windowHeight="15420" xr2:uid="{3ED843D8-AEB1-3D4E-B337-98446BB2CE17}"/>
   </bookViews>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CE9047-D882-FB41-A98E-BEB988A70E9C}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -423,13 +423,27 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>60.87</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/GOZO_strategy.xlsx
+++ b/data/GOZO_strategy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C4A31A-7622-FF44-97CE-C975B1370FBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E370A7B-8A0D-6142-B49F-FFE7C4E849FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39780" yWindow="6780" windowWidth="27240" windowHeight="15420" xr2:uid="{3ED843D8-AEB1-3D4E-B337-98446BB2CE17}"/>
+    <workbookView xWindow="40520" yWindow="7040" windowWidth="27240" windowHeight="15420" xr2:uid="{3ED843D8-AEB1-3D4E-B337-98446BB2CE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CE9047-D882-FB41-A98E-BEB988A70E9C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -446,6 +446,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>56</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GOZO_strategy.xlsx
+++ b/data/GOZO_strategy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GOZO/participant_3_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E370A7B-8A0D-6142-B49F-FFE7C4E849FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2514A8-C391-0848-A90E-CD827F0838A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40520" yWindow="7040" windowWidth="27240" windowHeight="15420" xr2:uid="{3ED843D8-AEB1-3D4E-B337-98446BB2CE17}"/>
+    <workbookView xWindow="32320" yWindow="2580" windowWidth="28800" windowHeight="16160" xr2:uid="{3ED843D8-AEB1-3D4E-B337-98446BB2CE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CE9047-D882-FB41-A98E-BEB988A70E9C}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -460,6 +460,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
